--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>43.0960941837051</v>
+        <v>0.07741733333333332</v>
       </c>
       <c r="H2">
-        <v>43.0960941837051</v>
+        <v>0.232252</v>
       </c>
       <c r="I2">
-        <v>0.91396690063732</v>
+        <v>0.001631933472270046</v>
       </c>
       <c r="J2">
-        <v>0.91396690063732</v>
+        <v>0.001631933472270046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>3811.614702835919</v>
+        <v>7.660191514149333</v>
       </c>
       <c r="R2">
-        <v>3811.614702835919</v>
+        <v>68.94172362734399</v>
       </c>
       <c r="S2">
-        <v>0.1782824033970046</v>
+        <v>0.0003423812243137376</v>
       </c>
       <c r="T2">
-        <v>0.1782824033970046</v>
+        <v>0.0003423812243137377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>43.0960941837051</v>
+        <v>0.07741733333333332</v>
       </c>
       <c r="H3">
-        <v>43.0960941837051</v>
+        <v>0.232252</v>
       </c>
       <c r="I3">
-        <v>0.91396690063732</v>
+        <v>0.001631933472270046</v>
       </c>
       <c r="J3">
-        <v>0.91396690063732</v>
+        <v>0.001631933472270046</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>7017.658675280128</v>
+        <v>12.61950808201822</v>
       </c>
       <c r="R3">
-        <v>7017.658675280128</v>
+        <v>113.575572738164</v>
       </c>
       <c r="S3">
-        <v>0.3282401691645061</v>
+        <v>0.0005640436821165194</v>
       </c>
       <c r="T3">
-        <v>0.3282401691645061</v>
+        <v>0.0005640436821165196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>43.0960941837051</v>
+        <v>0.07741733333333332</v>
       </c>
       <c r="H4">
-        <v>43.0960941837051</v>
+        <v>0.232252</v>
       </c>
       <c r="I4">
-        <v>0.91396690063732</v>
+        <v>0.001631933472270046</v>
       </c>
       <c r="J4">
-        <v>0.91396690063732</v>
+        <v>0.001631933472270046</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>2664.223664584626</v>
+        <v>5.062792188515556</v>
       </c>
       <c r="R4">
-        <v>2664.223664584626</v>
+        <v>45.56512969664001</v>
       </c>
       <c r="S4">
-        <v>0.1246149559020024</v>
+        <v>0.0002262874217633028</v>
       </c>
       <c r="T4">
-        <v>0.1246149559020024</v>
+        <v>0.0002262874217633029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>43.0960941837051</v>
+        <v>0.07741733333333332</v>
       </c>
       <c r="H5">
-        <v>43.0960941837051</v>
+        <v>0.232252</v>
       </c>
       <c r="I5">
-        <v>0.91396690063732</v>
+        <v>0.001631933472270046</v>
       </c>
       <c r="J5">
-        <v>0.91396690063732</v>
+        <v>0.001631933472270046</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>6046.7919033542</v>
+        <v>11.16921519047555</v>
       </c>
       <c r="R5">
-        <v>6046.7919033542</v>
+        <v>100.52293671428</v>
       </c>
       <c r="S5">
-        <v>0.2828293721738069</v>
+        <v>0.0004992211440764857</v>
       </c>
       <c r="T5">
-        <v>0.2828293721738069</v>
+        <v>0.0004992211440764858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.05670112392987</v>
+        <v>43.24729533333333</v>
       </c>
       <c r="H6">
-        <v>4.05670112392987</v>
+        <v>129.741886</v>
       </c>
       <c r="I6">
-        <v>0.08603309936268</v>
+        <v>0.9116396264352705</v>
       </c>
       <c r="J6">
-        <v>0.08603309936268</v>
+        <v>0.9116396264352705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>358.7931097205692</v>
+        <v>4279.178195093821</v>
       </c>
       <c r="R6">
-        <v>358.7931097205692</v>
+        <v>38512.60375584439</v>
       </c>
       <c r="S6">
-        <v>0.01678199474770519</v>
+        <v>0.1912628772774976</v>
       </c>
       <c r="T6">
-        <v>0.01678199474770519</v>
+        <v>0.1912628772774977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.05670112392987</v>
+        <v>43.24729533333333</v>
       </c>
       <c r="H7">
-        <v>4.05670112392987</v>
+        <v>129.741886</v>
       </c>
       <c r="I7">
-        <v>0.08603309936268</v>
+        <v>0.9116396264352705</v>
       </c>
       <c r="J7">
-        <v>0.08603309936268</v>
+        <v>0.9116396264352705</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>660.582922294829</v>
+        <v>7049.578815051267</v>
       </c>
       <c r="R7">
-        <v>660.582922294829</v>
+        <v>63446.2093354614</v>
       </c>
       <c r="S7">
-        <v>0.03089774812289274</v>
+        <v>0.3150891751381332</v>
       </c>
       <c r="T7">
-        <v>0.03089774812289274</v>
+        <v>0.3150891751381332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05670112392987</v>
+        <v>43.24729533333333</v>
       </c>
       <c r="H8">
-        <v>4.05670112392987</v>
+        <v>129.741886</v>
       </c>
       <c r="I8">
-        <v>0.08603309936268</v>
+        <v>0.9116396264352705</v>
       </c>
       <c r="J8">
-        <v>0.08603309936268</v>
+        <v>0.9116396264352705</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>250.7874400044254</v>
+        <v>2828.204738663503</v>
       </c>
       <c r="R8">
-        <v>250.7874400044254</v>
+        <v>25453.84264797152</v>
       </c>
       <c r="S8">
-        <v>0.01173019600131807</v>
+        <v>0.126409920593357</v>
       </c>
       <c r="T8">
-        <v>0.01173019600131807</v>
+        <v>0.1264099205933571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>43.24729533333333</v>
+      </c>
+      <c r="H9">
+        <v>129.741886</v>
+      </c>
+      <c r="I9">
+        <v>0.9116396264352705</v>
+      </c>
+      <c r="J9">
+        <v>0.9116396264352705</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N9">
+        <v>432.81839</v>
+      </c>
+      <c r="O9">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P9">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q9">
+        <v>6239.408246009282</v>
+      </c>
+      <c r="R9">
+        <v>56154.67421408354</v>
+      </c>
+      <c r="S9">
+        <v>0.2788776534262826</v>
+      </c>
+      <c r="T9">
+        <v>0.2788776534262826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.114312666666667</v>
+      </c>
+      <c r="H10">
+        <v>12.342938</v>
+      </c>
+      <c r="I10">
+        <v>0.08672844009245946</v>
+      </c>
+      <c r="J10">
+        <v>0.08672844009245947</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>98.946724</v>
+      </c>
+      <c r="N10">
+        <v>296.840172</v>
+      </c>
+      <c r="O10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q10">
+        <v>407.0977598783707</v>
+      </c>
+      <c r="R10">
+        <v>3663.879838905336</v>
+      </c>
+      <c r="S10">
+        <v>0.01819571079718821</v>
+      </c>
+      <c r="T10">
+        <v>0.01819571079718822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.05670112392987</v>
-      </c>
-      <c r="H9">
-        <v>4.05670112392987</v>
-      </c>
-      <c r="I9">
-        <v>0.08603309936268</v>
-      </c>
-      <c r="J9">
-        <v>0.08603309936268</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="N9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="O9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="P9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="Q9">
-        <v>569.1937512003577</v>
-      </c>
-      <c r="R9">
-        <v>569.1937512003577</v>
-      </c>
-      <c r="S9">
-        <v>0.02662316049076401</v>
-      </c>
-      <c r="T9">
-        <v>0.02662316049076401</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.114312666666667</v>
+      </c>
+      <c r="H11">
+        <v>12.342938</v>
+      </c>
+      <c r="I11">
+        <v>0.08672844009245946</v>
+      </c>
+      <c r="J11">
+        <v>0.08672844009245947</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N11">
+        <v>489.018707</v>
+      </c>
+      <c r="O11">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P11">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q11">
+        <v>670.6586201490185</v>
+      </c>
+      <c r="R11">
+        <v>6035.927581341166</v>
+      </c>
+      <c r="S11">
+        <v>0.02997587188767334</v>
+      </c>
+      <c r="T11">
+        <v>0.02997587188767335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.114312666666667</v>
+      </c>
+      <c r="H12">
+        <v>12.342938</v>
+      </c>
+      <c r="I12">
+        <v>0.08672844009245946</v>
+      </c>
+      <c r="J12">
+        <v>0.08672844009245947</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N12">
+        <v>196.18832</v>
+      </c>
+      <c r="O12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q12">
+        <v>269.0600300093512</v>
+      </c>
+      <c r="R12">
+        <v>2421.540270084161</v>
+      </c>
+      <c r="S12">
+        <v>0.01202595291753913</v>
+      </c>
+      <c r="T12">
+        <v>0.01202595291753913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.114312666666667</v>
+      </c>
+      <c r="H13">
+        <v>12.342938</v>
+      </c>
+      <c r="I13">
+        <v>0.08672844009245946</v>
+      </c>
+      <c r="J13">
+        <v>0.08672844009245947</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N13">
+        <v>432.81839</v>
+      </c>
+      <c r="O13">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P13">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q13">
+        <v>593.5833947810911</v>
+      </c>
+      <c r="R13">
+        <v>5342.25055302982</v>
+      </c>
+      <c r="S13">
+        <v>0.02653090449005877</v>
+      </c>
+      <c r="T13">
+        <v>0.02653090449005878</v>
       </c>
     </row>
   </sheetData>
